--- a/MSA.xlsx
+++ b/MSA.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\jamro\Projekty\Inżynier\MSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{270D35DA-8C57-40F3-95E6-A9101EA10FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACAFCB4-6855-4E7F-B530-B473C116E2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A6858769-7200-4519-BD16-802F2DBBB0A0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6858769-7200-4519-BD16-802F2DBBB0A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
     <sheet name="Typ 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Liniowość" sheetId="3" r:id="rId3"/>
+    <sheet name="Stabilność" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Dokładność</t>
   </si>
@@ -49,15 +51,6 @@
   </si>
   <si>
     <t>Rozróżnialność</t>
-  </si>
-  <si>
-    <t>Dokładność (BIAS) - odległość między wymiarem rzeczywistym a średnią wymiarów zmierzonych</t>
-  </si>
-  <si>
-    <t>Powtarzalność pochodzi od przyrządu - ten sam operator mierzy ten sam przedmiot w ten sam sposób tym samym przyrządem wiele razy</t>
-  </si>
-  <si>
-    <t>MSA - liczbowe</t>
   </si>
   <si>
     <t>Powtarzalność</t>
@@ -73,22 +66,6 @@
   </si>
   <si>
     <t>Źródło: https://www.matemaks.pl/odchylenie-standardowe.html</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Sg - odchylenie standardowe (mówi o ile średnio odchylały się zmierzone wartości od średniej z ich wszystkich) Fromuła Excel: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>STDEV.S</t>
-    </r>
   </si>
   <si>
     <t>[mm]</t>
@@ -145,9 +122,6 @@
     <t>Wskaźniki zdolności (muszą być większe od 1.33):</t>
   </si>
   <si>
-    <t>Liniowość - Sprawdza jak dokładny jest pomiar dla różnych przedziałów wartości np dla wymiarów 10mm, 50mm, 100mm</t>
-  </si>
-  <si>
     <t>k - współczynnik pomniejszenia tolerancji od 10 do 20 (domyślnie przyjmuje 20, dla bardziej rygorystycznych pomiarów wybrać 10)</t>
   </si>
   <si>
@@ -168,12 +142,135 @@
   <si>
     <t>5. Aby system pomiarowy był dokładny I powtarzalny wskaźniki muszą być większe od 1.33.</t>
   </si>
+  <si>
+    <t>Dokładność (ang. bias) - odległość między wymiarem rzeczywistym a średnią wymiarów zmierzonych</t>
+  </si>
+  <si>
+    <t>Powtarzalność (ang. Repeatability) - zmienność wyników pomiarów, pochodzi od przyrządu - ten sam operator mierzy ten sam przedmiot w ten sam sposób tym samym przyrządem wiele razy</t>
+  </si>
+  <si>
+    <t>Odchylenie (bias)</t>
+  </si>
+  <si>
+    <t>Pomiar</t>
+  </si>
+  <si>
+    <t>Średnie odchylenie</t>
+  </si>
+  <si>
+    <t>Produkt</t>
+  </si>
+  <si>
+    <t>Wymiar wzorcowy</t>
+  </si>
+  <si>
+    <t>P - value</t>
+  </si>
+  <si>
+    <t>UCL</t>
+  </si>
+  <si>
+    <t>LCL</t>
+  </si>
+  <si>
+    <t>Średnia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sg, σ "sigma" - odchylenie standardowe (ang. standard deviation) mówi o ile średnio odchylały się zmierzone wartości od średniej z ich wszystkich. Fromuła Excel: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STDEV.S</t>
+    </r>
+  </si>
+  <si>
+    <t>LCL - Dolna granica kontrolna</t>
+  </si>
+  <si>
+    <t>UCL - Górna granica kontrolna</t>
+  </si>
+  <si>
+    <t>Average of measurements - Średnia pomiarów</t>
+  </si>
+  <si>
+    <t>Standard deviation - Odchylenie standardowe, σ</t>
+  </si>
+  <si>
+    <t>2. Obliczyć średnią z dotychczasowych pomiarów.</t>
+  </si>
+  <si>
+    <t>4. Wyznaczyć dolną LCL = średnia - (3 * σ)  i górną UCL = średnia + (3 * σ)  granicę kontrolną.</t>
+  </si>
+  <si>
+    <t>5. Utworzyć kolumny dla: średniej, LCL, UCL obok danych pomiarowych i stworzyć wykres.</t>
+  </si>
+  <si>
+    <t>Stabilność systemu pomiarowego to dostarczanie wiarygodnych wyników pomiarów przez pewien czas. Stabilność jest badana za pomocą karty kontrolnej.</t>
+  </si>
+  <si>
+    <t>Karta kontrolna</t>
+  </si>
+  <si>
+    <t>3. Obliczyć odchylenie standardowe, σ  (Standard deviation), formuła STDEV.S.</t>
+  </si>
+  <si>
+    <t>1. Wykonywać pomiary tego samego przedmiotu tą samą metodą w możliwie zbliżonych warunkach cyklicznie np. co godzinę, codziennie itp.</t>
+  </si>
+  <si>
+    <t>6. Jeśli wartość pomiaru znacznie zbliża się do granicy LCL lub UCL system pomiarowy traci stabilność i należy podjąć stosowne działania (np. ponownie go wyregulować).</t>
+  </si>
+  <si>
+    <t>Liniowość</t>
+  </si>
+  <si>
+    <t>Stabilność (ang. Stability) - zdolność do dostarczania przez system pomiarowy spójnych wyników pomiarowych przez pewien czas</t>
+  </si>
+  <si>
+    <t>Liniowość (ang. Linearity)  - sprawdza jak dokładny jest pomiar dla różnych przedziałów wartości np dla wymiarów 10mm, 50mm, 100mm</t>
+  </si>
+  <si>
+    <t>Liniowość to zmienność dokładności dla różnych zakresów wartości pomiarowych danego przyrządu, określa w jakich zakresach wartości pomiarowych można mierzyć tym przyrządem.</t>
+  </si>
+  <si>
+    <t>1. Wybrać np. 5 wzorców o różnych wymiarach, zmierzyć urządzeniem o klasę dokładniejszym niż testowane.</t>
+  </si>
+  <si>
+    <t>2. Wykonać serię np. 10 pomiarów na każdym wzorcu tym samym przyrządem tą samą metodą w możliwie zbliżonych warunkach.</t>
+  </si>
+  <si>
+    <t>3. Obliczyć odchylenia (bias) = Pomiar - Wymiar wzorcowy.</t>
+  </si>
+  <si>
+    <t>4. Obliczyć średnie odchylenia.</t>
+  </si>
+  <si>
+    <t>7. Jeżeli p value jest mniejsze od 0.05 to system pomiarowy nie powinien być używany dla tego zakresu wartości.</t>
+  </si>
+  <si>
+    <t>6. Obliczyć P - value dla każdego wzorca osobno. Formuła: T.TEST(Wymiar wzorcowy, Pomiar, 2, 1).</t>
+  </si>
+  <si>
+    <t>5. Utworzyć wykres (oś X - wymiar wzorcowy, oś Y - odchylenia i średnie odchylenia, Linia trendu dla średnich odchyleń).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="184" formatCode="0.000000000000000000000E+00"/>
+    <numFmt numFmtId="198" formatCode="0.000E+00"/>
+    <numFmt numFmtId="237" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +310,13 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -426,34 +530,71 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -462,64 +603,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="198" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="237" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -542,11 +638,51 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1202,6 +1338,1724 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Liniowość!$H$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Średnie odchylenie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Liniowość!$E$23:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Liniowość!$H$23:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>-6.0000000000000279E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.0000000000000279E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.0000000000000279E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.0000000000000279E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.0000000000000279E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.0000000000000279E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.0000000000000279E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.0000000000000279E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.0000000000000279E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.0000000000000279E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.23599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28166666666666657</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28166666666666657</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.28166666666666657</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.28166666666666657</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.28166666666666657</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.28166666666666657</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3B53-420E-B682-F55661449E6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Liniowość!$G$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Odchylenie (bias)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Liniowość!$E$23:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Liniowość!$G$23:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
+                <c:pt idx="0">
+                  <c:v>-5.0000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.0000000000000071E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6.0000000000000053E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0000000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.9999999999999822E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5.0000000000000044E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9999999999999858E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9999999999999645E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.9999999999999609E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11000000000000032</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9999999999999574E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0000000000000036E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.16000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.9999999999999609E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.0000000000000249E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.40000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.34999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.9999999999999645E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17999999999999972</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.49000000000000021</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.27999999999999936</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.28999999999999915</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.14000000000000057</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.0000000000000284E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3B53-420E-B682-F55661449E6F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="255447632"/>
+        <c:axId val="255451472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="255447632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255451472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="255451472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255447632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stabilność!$D$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pomiar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Stabilność!$D$22:$D$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.12</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.12</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50.12</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6448-4D3C-B0BC-33261C20808C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stabilność!$E$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Średnia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Stabilność!$E$22:$E$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.11059999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6448-4D3C-B0BC-33261C20808C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stabilność!$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Stabilność!$F$22:$F$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.069725068807372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6448-4D3C-B0BC-33261C20808C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Stabilność!$G$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Stabilność!$G$22:$G$71</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.151474931192567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6448-4D3C-B0BC-33261C20808C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="16009855"/>
+        <c:axId val="16012735"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="16009855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16012735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="16012735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="16009855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1242,7 +3096,1119 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1923,6 +4889,88 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>131716</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949408AE-BCA6-AB83-CB75-32D8935D794A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD51BBE-8E49-7D53-043C-C3EB868F2B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2248,31 +5296,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD08A49-D851-4522-BCA3-11F56E8F07FE}">
-  <dimension ref="C6:D13"/>
+  <dimension ref="C8:D13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
-        <v>24</v>
+      <c r="C8" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="2"/>
+      <c r="C9" s="10"/>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.3">
@@ -2282,12 +5325,12 @@
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.3">
@@ -2307,266 +5350,266 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD4BAFD-8CA7-4DD6-97AB-6F2CB31CEBED}">
   <dimension ref="D2:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="L2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
+      <c r="L2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
     </row>
     <row r="5" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
     </row>
     <row r="7" spans="4:33" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="4:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="S8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="23">
+      <c r="D8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="S8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="9">
         <v>50.110999999999997</v>
       </c>
-      <c r="W8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z8" s="4"/>
-      <c r="AA8" s="4"/>
+      <c r="W8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
       <c r="AB8">
         <f>AVERAGE(U16:U65)</f>
         <v>50.11059999999997</v>
       </c>
       <c r="AD8" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="25">
+        <v>15</v>
+      </c>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="23">
         <f>((V12/100)*V11)/(6*AB9)</f>
         <v>2.421898862646592</v>
       </c>
     </row>
     <row r="9" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="S9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="23">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="S9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="9">
         <v>50.5</v>
       </c>
-      <c r="W9" s="15" t="s">
+      <c r="W9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="Y9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z9" s="4"/>
-      <c r="AA9" s="4"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
       <c r="AB9">
         <f>_xlfn.STDEV.S(U16:U65)</f>
         <v>1.376330525086728E-2</v>
       </c>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="27"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="21"/>
     </row>
     <row r="10" spans="4:33" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="23">
+        <v>5</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="9">
         <v>49.5</v>
       </c>
-      <c r="W10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z10" s="4"/>
-      <c r="AA10" s="4"/>
-      <c r="AB10" s="19">
+      <c r="W10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="8">
         <v>1.33</v>
       </c>
-      <c r="AD10" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="27">
+      <c r="AD10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="21">
         <f>(((V12/200)*V11)-ABS(AB8-V8))/(3*AB9)</f>
         <v>2.4122112671953402</v>
       </c>
     </row>
     <row r="11" spans="4:33" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="8">
+        <v>28</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11">
         <f>ABS(V9-V10)</f>
         <v>1</v>
       </c>
-      <c r="W11" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD11" s="28"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="29"/>
+      <c r="W11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="22"/>
     </row>
     <row r="12" spans="4:33" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="23">
+        <v>30</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="9">
         <v>20</v>
       </c>
-      <c r="W12" s="18"/>
+      <c r="W12" s="7"/>
     </row>
     <row r="13" spans="4:33" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="4:33" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="S15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
+      <c r="S15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
     </row>
     <row r="16" spans="4:33" x14ac:dyDescent="0.3">
-      <c r="D16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
+      <c r="D16" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
       <c r="U16">
         <v>50.11</v>
       </c>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="U17">
         <v>50.1</v>
       </c>
@@ -2583,7 +5626,7 @@
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U20">
         <v>50.19</v>
@@ -2601,7 +5644,7 @@
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.3">
       <c r="H23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U23">
         <v>50.11</v>
@@ -2609,15 +5652,13 @@
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.3">
       <c r="H24" t="s">
-        <v>26</v>
-      </c>
-      <c r="O24" s="8"/>
+        <v>22</v>
+      </c>
       <c r="U24">
         <v>50.11</v>
       </c>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="O25" s="8"/>
       <c r="U25">
         <v>50.14</v>
       </c>
@@ -2672,7 +5713,7 @@
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.3">
       <c r="M35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="U35">
         <v>50.11</v>
@@ -2680,7 +5721,7 @@
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.3">
       <c r="M36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="U36">
         <v>50.11</v>
@@ -2742,46 +5783,46 @@
       </c>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
+      <c r="D48" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
       <c r="U48">
         <v>50.1</v>
       </c>
     </row>
     <row r="49" spans="4:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
       <c r="U49">
         <v>50.1</v>
       </c>
     </row>
     <row r="50" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="U50">
         <v>50.11</v>
@@ -2789,7 +5830,7 @@
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U51">
         <v>50.11</v>
@@ -2797,7 +5838,7 @@
     </row>
     <row r="52" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U52">
         <v>50.12</v>
@@ -2805,7 +5846,7 @@
     </row>
     <row r="53" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="U53">
         <v>50.11</v>
@@ -2873,7 +5914,7 @@
     </row>
     <row r="68" spans="4:21" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2886,34 +5927,2367 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="S9:U9"/>
     <mergeCell ref="S12:U12"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="AD10:AF11"/>
     <mergeCell ref="D48:P49"/>
     <mergeCell ref="S15:U15"/>
     <mergeCell ref="S11:U11"/>
-    <mergeCell ref="S9:U9"/>
     <mergeCell ref="D16:O17"/>
   </mergeCells>
+  <conditionalFormatting sqref="AG8 AG10">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>$AB$10</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThan">
+      <formula>$AB$10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AG8">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>$AB$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>$AB$10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8 AG10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>$AB$10</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>$AB$10</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6543DDD2-1069-499F-AC65-90E91BAD20B4}">
+  <dimension ref="D2:P127"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="H2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+    </row>
+    <row r="3" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+    </row>
+    <row r="4" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+    </row>
+    <row r="5" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+    </row>
+    <row r="6" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1.95</v>
+      </c>
+      <c r="G23">
+        <f>F23-E23</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="H23" s="3">
+        <f>AVERAGE($G$23:$G$32)</f>
+        <v>-6.0000000000000279E-3</v>
+      </c>
+      <c r="I23" s="31">
+        <f>_xlfn.T.TEST($E$23:$E$32,$F$23:$F$32,2,1)</f>
+        <v>0.75011029908508187</v>
+      </c>
+      <c r="K23" s="30"/>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2.1</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ref="G24:G56" si="0">F24-E24</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" ref="H24:H32" si="1">AVERAGE($G$23:$G$32)</f>
+        <v>-6.0000000000000279E-3</v>
+      </c>
+      <c r="I24" s="31">
+        <f t="shared" ref="I24:I32" si="2">_xlfn.T.TEST($E$23:$E$32,$F$23:$F$32,2,1)</f>
+        <v>0.75011029908508187</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000279E-3</v>
+      </c>
+      <c r="I25" s="31">
+        <f t="shared" si="2"/>
+        <v>0.75011029908508187</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1.92</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>-8.0000000000000071E-2</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000279E-3</v>
+      </c>
+      <c r="I26" s="31">
+        <f t="shared" si="2"/>
+        <v>0.75011029908508187</v>
+      </c>
+      <c r="K26" s="29"/>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1.97</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000279E-3</v>
+      </c>
+      <c r="I27" s="31">
+        <f t="shared" si="2"/>
+        <v>0.75011029908508187</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1.94</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>-6.0000000000000053E-2</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000279E-3</v>
+      </c>
+      <c r="I28" s="31">
+        <f t="shared" si="2"/>
+        <v>0.75011029908508187</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2.02</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000279E-3</v>
+      </c>
+      <c r="I29" s="31">
+        <f t="shared" si="2"/>
+        <v>0.75011029908508187</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000279E-3</v>
+      </c>
+      <c r="I30" s="31">
+        <f t="shared" si="2"/>
+        <v>0.75011029908508187</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1.95</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000279E-3</v>
+      </c>
+      <c r="I31" s="31">
+        <f t="shared" si="2"/>
+        <v>0.75011029908508187</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2.04</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000279E-3</v>
+      </c>
+      <c r="I32" s="31">
+        <f t="shared" si="2"/>
+        <v>0.75011029908508187</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>4.09</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>8.9999999999999858E-2</v>
+      </c>
+      <c r="H33" s="3">
+        <f>AVERAGE($G$33:$G$39)</f>
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="I33" s="31">
+        <f>_xlfn.T.TEST($E$33:$E$39,$F$33:$F$39,2,1)</f>
+        <v>1.971746040968371E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34">
+        <v>4.16</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" ref="H34:H39" si="3">AVERAGE($G$33:$G$39)</f>
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="I34" s="31">
+        <f t="shared" ref="I34:I39" si="4">_xlfn.T.TEST($E$33:$E$39,$F$33:$F$39,2,1)</f>
+        <v>1.971746040968371E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <v>4.16</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="I35" s="31">
+        <f t="shared" si="4"/>
+        <v>1.971746040968371E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="I36" s="31">
+        <f t="shared" si="4"/>
+        <v>1.971746040968371E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="I37" s="31">
+        <f t="shared" si="4"/>
+        <v>1.971746040968371E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0.11000000000000032</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="I38" s="31">
+        <f t="shared" si="4"/>
+        <v>1.971746040968371E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+      <c r="F39">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="3"/>
+        <v>9.9999999999999895E-2</v>
+      </c>
+      <c r="I39" s="31">
+        <f t="shared" si="4"/>
+        <v>1.971746040968371E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>6.04</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="H40" s="3">
+        <f>AVERAGE($G$40:$G$45)</f>
+        <v>0.125</v>
+      </c>
+      <c r="I40" s="31">
+        <f>_xlfn.T.TEST($E$40:$E$45,$F$40:$F$45,2,1)</f>
+        <v>2.2853983175923898E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>6.25</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" ref="H41:H45" si="5">AVERAGE($G$40:$G$45)</f>
+        <v>0.125</v>
+      </c>
+      <c r="I41" s="31">
+        <f t="shared" ref="I41:I45" si="6">_xlfn.T.TEST($E$40:$E$45,$F$40:$F$45,2,1)</f>
+        <v>2.2853983175923898E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>6.21</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="I42" s="31">
+        <f t="shared" si="6"/>
+        <v>2.2853983175923898E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>6.16</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="I43" s="31">
+        <f t="shared" si="6"/>
+        <v>2.2853983175923898E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>6.06</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999609E-2</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="I44" s="31">
+        <f t="shared" si="6"/>
+        <v>2.2853983175923898E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>6.03</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>3.0000000000000249E-2</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="5"/>
+        <v>0.125</v>
+      </c>
+      <c r="I45" s="31">
+        <f t="shared" si="6"/>
+        <v>2.2853983175923898E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>8.4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="H46" s="3">
+        <f>AVERAGE($G$46:$G$50)</f>
+        <v>0.23599999999999993</v>
+      </c>
+      <c r="I46" s="31">
+        <f>_xlfn.T.TEST($E$46:$E$50,$F$46:$F$50,2,1)</f>
+        <v>1.5860978280088735E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>8.35</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0.34999999999999964</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" ref="H47:H50" si="7">AVERAGE($G$46:$G$50)</f>
+        <v>0.23599999999999993</v>
+      </c>
+      <c r="I47" s="31">
+        <f t="shared" ref="I47:I50" si="8">_xlfn.T.TEST($E$46:$E$50,$F$46:$F$50,2,1)</f>
+        <v>1.5860978280088735E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>4</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>8.15</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000036</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23599999999999993</v>
+      </c>
+      <c r="I48" s="31">
+        <f t="shared" si="8"/>
+        <v>1.5860978280088735E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>8</v>
+      </c>
+      <c r="F49">
+        <v>8.1</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999645E-2</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23599999999999993</v>
+      </c>
+      <c r="I49" s="31">
+        <f t="shared" si="8"/>
+        <v>1.5860978280088735E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>8.18</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="0"/>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="7"/>
+        <v>0.23599999999999993</v>
+      </c>
+      <c r="I50" s="31">
+        <f t="shared" si="8"/>
+        <v>1.5860978280088735E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>10.49</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="0"/>
+        <v>0.49000000000000021</v>
+      </c>
+      <c r="H51" s="3">
+        <f>AVERAGE($G$51:$G$56)</f>
+        <v>0.28166666666666657</v>
+      </c>
+      <c r="I51" s="31">
+        <f>_xlfn.T.TEST($E$51:$E$56,$F$51:$F$56,2,1)</f>
+        <v>7.5645070023150065E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>10.28</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="0"/>
+        <v>0.27999999999999936</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" ref="H52:H56" si="9">AVERAGE($G$51:$G$56)</f>
+        <v>0.28166666666666657</v>
+      </c>
+      <c r="I52" s="31">
+        <f t="shared" ref="I52:I56" si="10">_xlfn.T.TEST($E$51:$E$56,$F$51:$F$56,2,1)</f>
+        <v>7.5645070023150065E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <v>10.42</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="0"/>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="9"/>
+        <v>0.28166666666666657</v>
+      </c>
+      <c r="I53" s="31">
+        <f t="shared" si="10"/>
+        <v>7.5645070023150065E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>10.29</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="0"/>
+        <v>0.28999999999999915</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="9"/>
+        <v>0.28166666666666657</v>
+      </c>
+      <c r="I54" s="31">
+        <f t="shared" si="10"/>
+        <v>7.5645070023150065E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>10</v>
+      </c>
+      <c r="F55">
+        <v>10.14</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000057</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="9"/>
+        <v>0.28166666666666657</v>
+      </c>
+      <c r="I55" s="31">
+        <f t="shared" si="10"/>
+        <v>7.5645070023150065E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>10.07</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="9"/>
+        <v>0.28166666666666657</v>
+      </c>
+      <c r="I56" s="31">
+        <f t="shared" si="10"/>
+        <v>7.5645070023150065E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+    </row>
+    <row r="69" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+    </row>
+    <row r="70" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+    </row>
+    <row r="71" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+    </row>
+    <row r="72" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+    </row>
+    <row r="73" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+    </row>
+    <row r="74" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+    </row>
+    <row r="75" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K75" s="32"/>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+    </row>
+    <row r="76" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K76" s="32"/>
+      <c r="L76" s="32"/>
+      <c r="M76" s="32"/>
+    </row>
+    <row r="77" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K77" s="32"/>
+      <c r="L77" s="32"/>
+      <c r="M77" s="32"/>
+    </row>
+    <row r="78" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K78" s="32"/>
+      <c r="L78" s="32"/>
+      <c r="M78" s="32"/>
+    </row>
+    <row r="79" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K79" s="32"/>
+      <c r="L79" s="32"/>
+      <c r="M79" s="32"/>
+    </row>
+    <row r="80" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K80" s="32"/>
+      <c r="L80" s="32"/>
+      <c r="M80" s="32"/>
+    </row>
+    <row r="81" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K81" s="32"/>
+      <c r="L81" s="32"/>
+      <c r="M81" s="32"/>
+    </row>
+    <row r="82" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K82" s="32"/>
+      <c r="L82" s="32"/>
+      <c r="M82" s="32"/>
+    </row>
+    <row r="83" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K83" s="32"/>
+      <c r="L83" s="32"/>
+      <c r="M83" s="32"/>
+    </row>
+    <row r="84" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+    </row>
+    <row r="85" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K85" s="32"/>
+      <c r="L85" s="32"/>
+      <c r="M85" s="32"/>
+    </row>
+    <row r="86" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K86" s="32"/>
+      <c r="L86" s="32"/>
+      <c r="M86" s="32"/>
+    </row>
+    <row r="87" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K87" s="32"/>
+      <c r="L87" s="32"/>
+      <c r="M87" s="32"/>
+    </row>
+    <row r="88" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K88" s="32"/>
+      <c r="L88" s="32"/>
+      <c r="M88" s="32"/>
+    </row>
+    <row r="89" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+    </row>
+    <row r="90" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+    </row>
+    <row r="91" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+    </row>
+    <row r="92" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+    </row>
+    <row r="93" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K93" s="32"/>
+      <c r="L93" s="32"/>
+      <c r="M93" s="32"/>
+    </row>
+    <row r="94" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K94" s="32"/>
+      <c r="L94" s="32"/>
+      <c r="M94" s="32"/>
+    </row>
+    <row r="95" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K95" s="32"/>
+      <c r="L95" s="32"/>
+      <c r="M95" s="32"/>
+    </row>
+    <row r="96" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K96" s="32"/>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+    </row>
+    <row r="97" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K97" s="32"/>
+      <c r="L97" s="32"/>
+      <c r="M97" s="32"/>
+    </row>
+    <row r="98" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K98" s="32"/>
+      <c r="L98" s="32"/>
+      <c r="M98" s="32"/>
+    </row>
+    <row r="99" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K99" s="32"/>
+      <c r="L99" s="32"/>
+      <c r="M99" s="32"/>
+    </row>
+    <row r="100" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K100" s="32"/>
+      <c r="L100" s="32"/>
+      <c r="M100" s="32"/>
+    </row>
+    <row r="101" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K101" s="32"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="32"/>
+    </row>
+    <row r="102" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K102" s="32"/>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+    </row>
+    <row r="103" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+    </row>
+    <row r="104" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K104" s="32"/>
+      <c r="L104" s="32"/>
+      <c r="M104" s="32"/>
+    </row>
+    <row r="105" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K105" s="32"/>
+      <c r="L105" s="32"/>
+      <c r="M105" s="32"/>
+    </row>
+    <row r="106" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K106" s="32"/>
+      <c r="L106" s="32"/>
+      <c r="M106" s="32"/>
+    </row>
+    <row r="107" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K107" s="32"/>
+      <c r="L107" s="32"/>
+      <c r="M107" s="32"/>
+    </row>
+    <row r="108" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K108" s="32"/>
+      <c r="L108" s="32"/>
+      <c r="M108" s="32"/>
+    </row>
+    <row r="109" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K109" s="32"/>
+      <c r="L109" s="32"/>
+      <c r="M109" s="32"/>
+    </row>
+    <row r="110" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K110" s="32"/>
+      <c r="L110" s="32"/>
+      <c r="M110" s="32"/>
+    </row>
+    <row r="111" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K111" s="32"/>
+      <c r="L111" s="32"/>
+      <c r="M111" s="32"/>
+    </row>
+    <row r="112" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+    </row>
+    <row r="113" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+    </row>
+    <row r="114" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K114" s="32"/>
+      <c r="L114" s="32"/>
+      <c r="M114" s="32"/>
+    </row>
+    <row r="115" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K115" s="32"/>
+      <c r="L115" s="32"/>
+      <c r="M115" s="32"/>
+    </row>
+    <row r="116" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K116" s="32"/>
+      <c r="L116" s="32"/>
+      <c r="M116" s="32"/>
+    </row>
+    <row r="117" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K117" s="32"/>
+      <c r="L117" s="32"/>
+      <c r="M117" s="32"/>
+    </row>
+    <row r="118" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K118" s="32"/>
+      <c r="L118" s="32"/>
+      <c r="M118" s="32"/>
+    </row>
+    <row r="119" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K119" s="32"/>
+      <c r="L119" s="32"/>
+      <c r="M119" s="32"/>
+    </row>
+    <row r="120" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K120" s="32"/>
+      <c r="L120" s="32"/>
+      <c r="M120" s="32"/>
+    </row>
+    <row r="121" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K121" s="32"/>
+      <c r="L121" s="32"/>
+      <c r="M121" s="32"/>
+    </row>
+    <row r="122" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+    </row>
+    <row r="123" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K123" s="32"/>
+      <c r="L123" s="32"/>
+      <c r="M123" s="32"/>
+    </row>
+    <row r="124" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K124" s="32"/>
+      <c r="L124" s="32"/>
+      <c r="M124" s="32"/>
+    </row>
+    <row r="125" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K125" s="32"/>
+      <c r="L125" s="32"/>
+      <c r="M125" s="32"/>
+    </row>
+    <row r="126" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K126" s="32"/>
+      <c r="L126" s="32"/>
+      <c r="M126" s="32"/>
+    </row>
+    <row r="127" spans="11:13" x14ac:dyDescent="0.3">
+      <c r="K127" s="32"/>
+      <c r="L127" s="32"/>
+      <c r="M127" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H2:P5"/>
+    <mergeCell ref="D8:P9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I23:I56">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0.05</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+      <formula>0.05</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8368498-9510-4C57-A9D1-E15B5CFE495D}">
+  <dimension ref="D2:Q71"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+    </row>
+    <row r="3" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="4:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+    </row>
+    <row r="9" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+    </row>
+    <row r="10" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D19" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="33">
+        <f>AVERAGE(D22:D71)</f>
+        <v>50.11059999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>50.11</v>
+      </c>
+      <c r="E22" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F22" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G22" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="33">
+        <f>_xlfn.STDEV.P(D22:D71)</f>
+        <v>1.362497706420014E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>50.1</v>
+      </c>
+      <c r="E23" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F23" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G23" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="33">
+        <f>N21-(3*N22)</f>
+        <v>50.069725068807372</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>50.1</v>
+      </c>
+      <c r="E24" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F24" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G24" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="33">
+        <f>N21+(3*N22)</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>50.1</v>
+      </c>
+      <c r="E25" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F25" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G25" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>50.19</v>
+      </c>
+      <c r="E26" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F26" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G26" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>50.11</v>
+      </c>
+      <c r="E27" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F27" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G27" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>50.11</v>
+      </c>
+      <c r="E28" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F28" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G28" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>50.11</v>
+      </c>
+      <c r="E29" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F29" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G29" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>50.11</v>
+      </c>
+      <c r="E30" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F30" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G30" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>50.14</v>
+      </c>
+      <c r="E31" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F31" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G31" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>50.11</v>
+      </c>
+      <c r="E32" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F32" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G32" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>50.11</v>
+      </c>
+      <c r="E33" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F33" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G33" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>50.11</v>
+      </c>
+      <c r="E34" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F34" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G34" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>50.1</v>
+      </c>
+      <c r="E35" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F35" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G35" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>50.11</v>
+      </c>
+      <c r="E36" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F36" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G36" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>50.11</v>
+      </c>
+      <c r="E37" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F37" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G37" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>50.1</v>
+      </c>
+      <c r="E38" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F38" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G38" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>50.1</v>
+      </c>
+      <c r="E39" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F39" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G39" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>50.1</v>
+      </c>
+      <c r="E40" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F40" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G40" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>50.11</v>
+      </c>
+      <c r="E41" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F41" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G41" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>50.11</v>
+      </c>
+      <c r="E42" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F42" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G42" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>50.11</v>
+      </c>
+      <c r="E43" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F43" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G43" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>50.1</v>
+      </c>
+      <c r="E44" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F44" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G44" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>50.11</v>
+      </c>
+      <c r="E45" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F45" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G45" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>50.12</v>
+      </c>
+      <c r="E46" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F46" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G46" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>50.11</v>
+      </c>
+      <c r="E47" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F47" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G47" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>50.11</v>
+      </c>
+      <c r="E48" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F48" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G48" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>50.12</v>
+      </c>
+      <c r="E49" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F49" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G49" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>50.1</v>
+      </c>
+      <c r="E50" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F50" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G50" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>50.12</v>
+      </c>
+      <c r="E51" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F51" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G51" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>50.11</v>
+      </c>
+      <c r="E52" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F52" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G52" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>50.11</v>
+      </c>
+      <c r="E53" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F53" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G53" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>50.1</v>
+      </c>
+      <c r="E54" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F54" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G54" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>50.1</v>
+      </c>
+      <c r="E55" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F55" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G55" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>50.11</v>
+      </c>
+      <c r="E56" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F56" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G56" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>50.11</v>
+      </c>
+      <c r="E57" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F57" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G57" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>50.12</v>
+      </c>
+      <c r="E58" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F58" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G58" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>50.11</v>
+      </c>
+      <c r="E59" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F59" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G59" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>50.1</v>
+      </c>
+      <c r="E60" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F60" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G60" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>50.11</v>
+      </c>
+      <c r="E61" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F61" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G61" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>50.11</v>
+      </c>
+      <c r="E62" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F62" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G62" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>50.11</v>
+      </c>
+      <c r="E63" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F63" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G63" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>50.1</v>
+      </c>
+      <c r="E64" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F64" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G64" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>50.11</v>
+      </c>
+      <c r="E65" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F65" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G65" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>50.12</v>
+      </c>
+      <c r="E66" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F66" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G66" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>50.11</v>
+      </c>
+      <c r="E67" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F67" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G67" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>50.1</v>
+      </c>
+      <c r="E68" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F68" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G68" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>50.12</v>
+      </c>
+      <c r="E69" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F69" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G69" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>50.11</v>
+      </c>
+      <c r="E70" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F70" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G70" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>50.11</v>
+      </c>
+      <c r="E71" s="33">
+        <f>$N$21</f>
+        <v>50.11059999999997</v>
+      </c>
+      <c r="F71" s="33">
+        <f>$N$23</f>
+        <v>50.069725068807372</v>
+      </c>
+      <c r="G71" s="33">
+        <f>$N$24</f>
+        <v>50.151474931192567</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="I2:Q5"/>
+    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="D8:P9"/>
+    <mergeCell ref="D19:N20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>